--- a/氣象性能評估工具V2/data/obs/backup/2016-06-28_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-28_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-28 00:00:00</t>
+    <t>2016-06-28-00</t>
   </si>
   <si>
     <t>21.7</t>
@@ -151,7 +151,7 @@
     <t>26.8</t>
   </si>
   <si>
-    <t>2016-06-28 01:00:00</t>
+    <t>2016-06-28-01</t>
   </si>
   <si>
     <t>21.2</t>
@@ -196,7 +196,7 @@
     <t>30.3</t>
   </si>
   <si>
-    <t>2016-06-28 02:00:00</t>
+    <t>2016-06-28-02</t>
   </si>
   <si>
     <t>23.1</t>
@@ -229,7 +229,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>2016-06-28 03:00:00</t>
+    <t>2016-06-28-03</t>
   </si>
   <si>
     <t>26.5</t>
@@ -253,7 +253,7 @@
     <t>28.1</t>
   </si>
   <si>
-    <t>2016-06-28 04:00:00</t>
+    <t>2016-06-28-04</t>
   </si>
   <si>
     <t>23.5</t>
@@ -274,7 +274,7 @@
     <t>7.7</t>
   </si>
   <si>
-    <t>2016-06-28 05:00:00</t>
+    <t>2016-06-28-05</t>
   </si>
   <si>
     <t>22.2</t>
@@ -295,7 +295,7 @@
     <t>27.1</t>
   </si>
   <si>
-    <t>2016-06-28 06:00:00</t>
+    <t>2016-06-28-06</t>
   </si>
   <si>
     <t>23.9</t>
@@ -325,7 +325,7 @@
     <t>31.4</t>
   </si>
   <si>
-    <t>2016-06-28 07:00:00</t>
+    <t>2016-06-28-07</t>
   </si>
   <si>
     <t>25.7</t>
@@ -367,7 +367,7 @@
     <t>31.0</t>
   </si>
   <si>
-    <t>2016-06-28 08:00:00</t>
+    <t>2016-06-28-08</t>
   </si>
   <si>
     <t>32.9</t>
@@ -397,7 +397,7 @@
     <t>29.9</t>
   </si>
   <si>
-    <t>2016-06-28 09:00:00</t>
+    <t>2016-06-28-09</t>
   </si>
   <si>
     <t>25.8</t>
@@ -439,7 +439,7 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>2016-06-28 10:00:00</t>
+    <t>2016-06-28-10</t>
   </si>
   <si>
     <t>25.6</t>
@@ -469,7 +469,7 @@
     <t>31.3</t>
   </si>
   <si>
-    <t>2016-06-28 11:00:00</t>
+    <t>2016-06-28-11</t>
   </si>
   <si>
     <t>35.8</t>
@@ -499,7 +499,7 @@
     <t>33.7</t>
   </si>
   <si>
-    <t>2016-06-28 12:00:00</t>
+    <t>2016-06-28-12</t>
   </si>
   <si>
     <t>24.6</t>
@@ -523,7 +523,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-28 13:00:00</t>
+    <t>2016-06-28-13</t>
   </si>
   <si>
     <t>24.5</t>
@@ -544,7 +544,7 @@
     <t>34.3</t>
   </si>
   <si>
-    <t>2016-06-28 14:00:00</t>
+    <t>2016-06-28-14</t>
   </si>
   <si>
     <t>23.7</t>
@@ -562,7 +562,7 @@
     <t>10.2</t>
   </si>
   <si>
-    <t>2016-06-28 15:00:00</t>
+    <t>2016-06-28-15</t>
   </si>
   <si>
     <t>23.3</t>
@@ -577,7 +577,7 @@
     <t>9.7</t>
   </si>
   <si>
-    <t>2016-06-28 16:00:00</t>
+    <t>2016-06-28-16</t>
   </si>
   <si>
     <t>25.3</t>
@@ -595,7 +595,7 @@
     <t>8.2</t>
   </si>
   <si>
-    <t>2016-06-28 17:00:00</t>
+    <t>2016-06-28-17</t>
   </si>
   <si>
     <t>26.6</t>
@@ -604,10 +604,10 @@
     <t>17.0</t>
   </si>
   <si>
-    <t>2016-06-28 18:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-28 19:00:00</t>
+    <t>2016-06-28-18</t>
+  </si>
+  <si>
+    <t>2016-06-28-19</t>
   </si>
   <si>
     <t>21.4</t>
@@ -622,7 +622,7 @@
     <t>6.7</t>
   </si>
   <si>
-    <t>2016-06-28 20:00:00</t>
+    <t>2016-06-28-20</t>
   </si>
   <si>
     <t>21.5</t>
@@ -637,7 +637,7 @@
     <t>6.8</t>
   </si>
   <si>
-    <t>2016-06-28 21:00:00</t>
+    <t>2016-06-28-21</t>
   </si>
   <si>
     <t>26.4</t>
@@ -646,7 +646,7 @@
     <t>13.8</t>
   </si>
   <si>
-    <t>2016-06-28 22:00:00</t>
+    <t>2016-06-28-22</t>
   </si>
   <si>
     <t>21.6</t>
@@ -658,7 +658,7 @@
     <t>14.0</t>
   </si>
   <si>
-    <t>2016-06-28 23:00:00</t>
+    <t>2016-06-28-23</t>
   </si>
   <si>
     <t>21.8</t>
